--- a/JaioSelection/src/main/webapp/resources/files/FormatoDeReclutamientoMasivo.xlsx
+++ b/JaioSelection/src/main/webapp/resources/files/FormatoDeReclutamientoMasivo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>INFORMACION</t>
   </si>
@@ -120,7 +120,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,16 +136,77 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -168,19 +229,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Buena" xfId="1" builtinId="26"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -464,47 +592,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="13"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -569,12 +698,12 @@
       <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -586,16 +715,16 @@
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -616,13 +745,13 @@
       <c r="F5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="16"/>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -640,18 +769,82 @@
       <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="16"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D18" s="8"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="17"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="17"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="B1:M1"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="G5:M5"/>
+    <mergeCell ref="F6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
